--- a/寻乐事务所.xlsx
+++ b/寻乐事务所.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="寻乐事务所" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="寻乐事务所" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -832,6 +832,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1096,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA46"/>
+  <dimension ref="A1:BA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
@@ -10228,6 +10296,1095 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2974.27</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>1046.90</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>1046.90</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2346.27</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所寻乐盲盒7选1[9.9]</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所代金券[89.0]</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所2人餐[158.0]</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>948.0</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所2人餐[158.0]</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>948.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2974.27</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>1046.90</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>1046.90</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2346.27</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所寻乐盲盒7选1[9.9]</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所代金券[89.0]</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所2人餐[158.0]</t>
+        </is>
+      </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>948.0</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所2人餐[158.0]</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>948.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>3435.40</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>1363.90</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>1363.90</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2071.50</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所寻乐盲盒7选1[9.9]</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所代金券[89.0]</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2353.30</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>1512.70</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>1512.70</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>840.60</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所寻乐盲盒7选1[9.9]</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>29.7</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所代金券[89.0]</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>979.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>2353.30</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>1512.70</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>1512.70</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>840.60</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所寻乐盲盒7选1[9.9]</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>29.7</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所代金券[89.0]</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>979.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>4035.37</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>1719.80</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>1719.80</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2315.57</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所寻乐盲盒7选1[9.9]</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所代金券[89.0]</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>4035.37</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>1719.80</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>1719.80</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2315.57</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所寻乐盲盒7选1[9.9]</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>珠海_寻乐事务所代金券[89.0]</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
